--- a/Job_execution_times.xlsx
+++ b/Job_execution_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSC\Semester 1\Big-Data-Analytical-technologies\Assignment\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295ADAF-9F4A-4E8B-A28D-D6B7F302FAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4A8FB-7614-40C3-8BB8-2AA59E706D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllQuery" sheetId="6" r:id="rId1"/>
@@ -7175,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3103C5-3CCC-4B55-A9B9-E7E4FDB5EDA2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7593,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB01ED5-884A-4E35-922F-948FE6BE160A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
